--- a/artfynd/Aspmyrbäcken artfynd.xlsx
+++ b/artfynd/Aspmyrbäcken artfynd.xlsx
@@ -777,10 +777,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73342845</v>
+        <v>73342855</v>
       </c>
       <c r="B3" t="n">
-        <v>91245</v>
+        <v>88654</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,21 +788,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>666405</v>
+        <v>667292</v>
       </c>
       <c r="R3" t="n">
-        <v>7133560</v>
+        <v>7133349</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -874,10 +874,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>73342855</v>
+        <v>73342853</v>
       </c>
       <c r="B4" t="n">
-        <v>88654</v>
+        <v>57657</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,34 +885,46 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Mossavattenberget norra, Ly lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>667292</v>
+        <v>667302</v>
       </c>
       <c r="R4" t="n">
-        <v>7133349</v>
+        <v>7133652</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -971,10 +983,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73342853</v>
+        <v>73342845</v>
       </c>
       <c r="B5" t="n">
-        <v>57657</v>
+        <v>91245</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,46 +994,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Mossavattenberget norra, Ly lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>667302</v>
+        <v>666405</v>
       </c>
       <c r="R5" t="n">
-        <v>7133652</v>
+        <v>7133560</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1080,32 +1080,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>73342723</v>
+        <v>73342712</v>
       </c>
       <c r="B6" t="n">
-        <v>91699</v>
+        <v>91263</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1209</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1115,10 +1115,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>666357</v>
+        <v>666587</v>
       </c>
       <c r="R6" t="n">
-        <v>7133367</v>
+        <v>7133222</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1177,32 +1177,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>73342717</v>
+        <v>73342723</v>
       </c>
       <c r="B7" t="n">
-        <v>91245</v>
+        <v>91699</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>666370</v>
+        <v>666357</v>
       </c>
       <c r="R7" t="n">
-        <v>7133399</v>
+        <v>7133367</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1274,10 +1274,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>73342712</v>
+        <v>73342717</v>
       </c>
       <c r="B8" t="n">
-        <v>91263</v>
+        <v>91245</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1285,21 +1285,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>666587</v>
+        <v>666370</v>
       </c>
       <c r="R8" t="n">
-        <v>7133222</v>
+        <v>7133399</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>73342716</v>
+        <v>73342847</v>
       </c>
       <c r="B10" t="n">
-        <v>80084</v>
+        <v>91541</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1488,21 +1488,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2081</v>
+        <v>658</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>666440</v>
+        <v>666410</v>
       </c>
       <c r="R10" t="n">
-        <v>7133437</v>
+        <v>7133567</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1556,7 +1556,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1575,10 +1574,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73342847</v>
+        <v>73342716</v>
       </c>
       <c r="B11" t="n">
-        <v>91541</v>
+        <v>80084</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1586,21 +1585,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>658</v>
+        <v>2081</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1610,10 +1609,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>666410</v>
+        <v>666440</v>
       </c>
       <c r="R11" t="n">
-        <v>7133567</v>
+        <v>7133437</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1654,6 +1653,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1672,32 +1672,32 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>73342728</v>
+        <v>73342806</v>
       </c>
       <c r="B12" t="n">
-        <v>79987</v>
+        <v>78980</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1707,10 +1707,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>666192</v>
+        <v>666624</v>
       </c>
       <c r="R12" t="n">
-        <v>7133300</v>
+        <v>7133203</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1769,32 +1769,32 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>73342806</v>
+        <v>73342728</v>
       </c>
       <c r="B13" t="n">
-        <v>78980</v>
+        <v>79987</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1804,10 +1804,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>666624</v>
+        <v>666192</v>
       </c>
       <c r="R13" t="n">
-        <v>7133203</v>
+        <v>7133300</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>73342797</v>
+        <v>73342720</v>
       </c>
       <c r="B17" t="n">
-        <v>78980</v>
+        <v>88654</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2168,21 +2168,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2192,10 +2192,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>666908</v>
+        <v>666370</v>
       </c>
       <c r="R17" t="n">
-        <v>7133259</v>
+        <v>7133399</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>73342786</v>
+        <v>73342797</v>
       </c>
       <c r="B18" t="n">
         <v>78980</v>
@@ -2289,10 +2289,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>667084</v>
+        <v>666908</v>
       </c>
       <c r="R18" t="n">
-        <v>7133272</v>
+        <v>7133259</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2351,32 +2351,32 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>73342848</v>
+        <v>73342805</v>
       </c>
       <c r="B19" t="n">
-        <v>78980</v>
+        <v>80112</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>666495</v>
+        <v>666749</v>
       </c>
       <c r="R19" t="n">
-        <v>7133719</v>
+        <v>7133210</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2448,32 +2448,32 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>73342805</v>
+        <v>73342786</v>
       </c>
       <c r="B20" t="n">
-        <v>80112</v>
+        <v>78980</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>666749</v>
+        <v>667084</v>
       </c>
       <c r="R20" t="n">
-        <v>7133210</v>
+        <v>7133272</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2545,10 +2545,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>73342720</v>
+        <v>73342848</v>
       </c>
       <c r="B21" t="n">
-        <v>88654</v>
+        <v>78980</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2556,21 +2556,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2580,10 +2580,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>666370</v>
+        <v>666495</v>
       </c>
       <c r="R21" t="n">
-        <v>7133399</v>
+        <v>7133719</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3339,32 +3339,32 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>73342846</v>
+        <v>73342724</v>
       </c>
       <c r="B29" t="n">
-        <v>91446</v>
+        <v>79987</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>48</v>
+        <v>6456</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Romell) Bondartsev &amp; Singer</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3374,10 +3374,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>666410</v>
+        <v>666297</v>
       </c>
       <c r="R29" t="n">
-        <v>7133567</v>
+        <v>7133333</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>73342800</v>
+        <v>73342846</v>
       </c>
       <c r="B30" t="n">
         <v>91446</v>
@@ -3471,10 +3471,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>666840</v>
+        <v>666410</v>
       </c>
       <c r="R30" t="n">
-        <v>7133206</v>
+        <v>7133567</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3533,32 +3533,32 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>73342801</v>
+        <v>73342800</v>
       </c>
       <c r="B31" t="n">
-        <v>91420</v>
+        <v>91446</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1588</v>
+        <v>48</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Violmussling</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Trichaptum laricinum</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(P.Karst.) Ryvarden</t>
+          <t>(Romell) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3568,10 +3568,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>666819</v>
+        <v>666840</v>
       </c>
       <c r="R31" t="n">
-        <v>7133209</v>
+        <v>7133206</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3630,32 +3630,32 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>73342724</v>
+        <v>73342801</v>
       </c>
       <c r="B32" t="n">
-        <v>79987</v>
+        <v>91420</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6456</v>
+        <v>1588</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Violmussling</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Trichaptum laricinum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Ryvarden</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3665,10 +3665,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>666297</v>
+        <v>666819</v>
       </c>
       <c r="R32" t="n">
-        <v>7133333</v>
+        <v>7133209</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3824,32 +3824,32 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>73342857</v>
+        <v>73342711</v>
       </c>
       <c r="B34" t="n">
-        <v>91446</v>
+        <v>80083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>48</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Romell) Bondartsev &amp; Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3859,10 +3859,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>667284</v>
+        <v>666587</v>
       </c>
       <c r="R34" t="n">
-        <v>7133334</v>
+        <v>7133222</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3921,32 +3921,32 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>73342798</v>
+        <v>73342857</v>
       </c>
       <c r="B35" t="n">
-        <v>91245</v>
+        <v>91446</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>48</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -3956,10 +3956,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>666908</v>
+        <v>667284</v>
       </c>
       <c r="R35" t="n">
-        <v>7133259</v>
+        <v>7133334</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4115,10 +4115,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>73342711</v>
+        <v>73342798</v>
       </c>
       <c r="B37" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4126,21 +4126,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4150,10 +4150,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>666587</v>
+        <v>666908</v>
       </c>
       <c r="R37" t="n">
-        <v>7133222</v>
+        <v>7133259</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4503,10 +4503,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>73342730</v>
+        <v>73342803</v>
       </c>
       <c r="B41" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4514,21 +4514,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4538,10 +4538,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>666085</v>
+        <v>666799</v>
       </c>
       <c r="R41" t="n">
-        <v>7133256</v>
+        <v>7133209</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4600,10 +4600,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>73342803</v>
+        <v>73342730</v>
       </c>
       <c r="B42" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4611,21 +4611,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4635,10 +4635,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>666799</v>
+        <v>666085</v>
       </c>
       <c r="R42" t="n">
-        <v>7133209</v>
+        <v>7133256</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5085,10 +5085,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>73342729</v>
+        <v>7125456</v>
       </c>
       <c r="B47" t="n">
-        <v>80084</v>
+        <v>80083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5096,37 +5096,41 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Mossavattenberget norra, Ly lm</t>
+          <t>Granträsk, Ly lm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>666085</v>
+        <v>665231</v>
       </c>
       <c r="R47" t="n">
-        <v>7133256</v>
+        <v>7134896</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5150,12 +5154,17 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2018-09-20</t>
+          <t>2011-08-03</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2018-09-20</t>
+          <t>2011-08-03</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Sveaskogs Naturvärdesinventering -Inventerare: Ebba Okfors  ID;29495</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5170,12 +5179,12 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Sveaskog genom Johan Ekenstedt</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Sveaskog genom Johan Ekenstedt</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
@@ -5376,10 +5385,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>7125456</v>
+        <v>73342729</v>
       </c>
       <c r="B50" t="n">
-        <v>80083</v>
+        <v>80084</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5387,41 +5396,37 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Granträsk, Ly lm</t>
+          <t>Mossavattenberget norra, Ly lm</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>665231</v>
+        <v>666085</v>
       </c>
       <c r="R50" t="n">
-        <v>7134896</v>
+        <v>7133256</v>
       </c>
       <c r="S50" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -5445,17 +5450,12 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2011-08-03</t>
+          <t>2018-09-20</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2011-08-03</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>Sveaskogs Naturvärdesinventering -Inventerare: Ebba Okfors  ID;29495</t>
+          <t>2018-09-20</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5470,12 +5470,12 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Sveaskog genom Johan Ekenstedt</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Sveaskog genom Johan Ekenstedt</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
@@ -5579,10 +5579,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>73342788</v>
+        <v>73342852</v>
       </c>
       <c r="B52" t="n">
-        <v>80084</v>
+        <v>78980</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5590,21 +5590,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>667084</v>
+        <v>667295</v>
       </c>
       <c r="R52" t="n">
-        <v>7133272</v>
+        <v>7133725</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5676,10 +5676,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>73342852</v>
+        <v>73342788</v>
       </c>
       <c r="B53" t="n">
-        <v>78980</v>
+        <v>80084</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5687,21 +5687,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -5711,10 +5711,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>667295</v>
+        <v>667084</v>
       </c>
       <c r="R53" t="n">
-        <v>7133725</v>
+        <v>7133272</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -5773,32 +5773,32 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>73342850</v>
+        <v>73342787</v>
       </c>
       <c r="B54" t="n">
-        <v>96487</v>
+        <v>80083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2869</v>
+        <v>6458</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -5808,10 +5808,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>666897</v>
+        <v>667084</v>
       </c>
       <c r="R54" t="n">
-        <v>7133616</v>
+        <v>7133272</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -5967,32 +5967,32 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>73342787</v>
+        <v>73342850</v>
       </c>
       <c r="B56" t="n">
-        <v>80083</v>
+        <v>96487</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6458</v>
+        <v>2869</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6002,10 +6002,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>667084</v>
+        <v>666897</v>
       </c>
       <c r="R56" t="n">
-        <v>7133272</v>
+        <v>7133616</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6161,32 +6161,32 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>73342714</v>
+        <v>73342789</v>
       </c>
       <c r="B58" t="n">
-        <v>91614</v>
+        <v>80083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1506</v>
+        <v>6458</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6196,10 +6196,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>666517</v>
+        <v>666969</v>
       </c>
       <c r="R58" t="n">
-        <v>7133384</v>
+        <v>7133305</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6258,32 +6258,32 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>73342856</v>
+        <v>73342714</v>
       </c>
       <c r="B59" t="n">
-        <v>91245</v>
+        <v>91614</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1202</v>
+        <v>1506</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6293,10 +6293,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>667284</v>
+        <v>666517</v>
       </c>
       <c r="R59" t="n">
-        <v>7133334</v>
+        <v>7133384</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6355,10 +6355,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>73342789</v>
+        <v>73342856</v>
       </c>
       <c r="B60" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6366,21 +6366,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6390,10 +6390,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>666969</v>
+        <v>667284</v>
       </c>
       <c r="R60" t="n">
-        <v>7133305</v>
+        <v>7133334</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6452,10 +6452,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>73342799</v>
+        <v>73342692</v>
       </c>
       <c r="B61" t="n">
-        <v>91541</v>
+        <v>91263</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6463,21 +6463,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -6487,10 +6487,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>666908</v>
+        <v>666085</v>
       </c>
       <c r="R61" t="n">
-        <v>7133259</v>
+        <v>7133256</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -6549,10 +6549,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>73342692</v>
+        <v>73342799</v>
       </c>
       <c r="B62" t="n">
-        <v>91263</v>
+        <v>91541</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6560,21 +6560,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -6584,10 +6584,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>666085</v>
+        <v>666908</v>
       </c>
       <c r="R62" t="n">
-        <v>7133256</v>
+        <v>7133259</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>

--- a/artfynd/Aspmyrbäcken artfynd.xlsx
+++ b/artfynd/Aspmyrbäcken artfynd.xlsx
@@ -777,10 +777,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73342855</v>
+        <v>73342845</v>
       </c>
       <c r="B3" t="n">
-        <v>88654</v>
+        <v>91245</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,21 +788,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>510</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>667292</v>
+        <v>666405</v>
       </c>
       <c r="R3" t="n">
-        <v>7133349</v>
+        <v>7133560</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -983,10 +983,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73342845</v>
+        <v>73342855</v>
       </c>
       <c r="B5" t="n">
-        <v>91245</v>
+        <v>88654</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -994,21 +994,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>666405</v>
+        <v>667292</v>
       </c>
       <c r="R5" t="n">
-        <v>7133560</v>
+        <v>7133349</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1080,32 +1080,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>73342712</v>
+        <v>73342723</v>
       </c>
       <c r="B6" t="n">
-        <v>91263</v>
+        <v>91699</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>1209</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1115,10 +1115,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>666587</v>
+        <v>666357</v>
       </c>
       <c r="R6" t="n">
-        <v>7133222</v>
+        <v>7133367</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1177,32 +1177,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>73342723</v>
+        <v>73342717</v>
       </c>
       <c r="B7" t="n">
-        <v>91699</v>
+        <v>91245</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>666357</v>
+        <v>666370</v>
       </c>
       <c r="R7" t="n">
-        <v>7133367</v>
+        <v>7133399</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1274,10 +1274,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>73342717</v>
+        <v>73342712</v>
       </c>
       <c r="B8" t="n">
-        <v>91245</v>
+        <v>91263</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1285,21 +1285,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>666370</v>
+        <v>666587</v>
       </c>
       <c r="R8" t="n">
-        <v>7133399</v>
+        <v>7133222</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1574,10 +1574,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73342716</v>
+        <v>73342806</v>
       </c>
       <c r="B11" t="n">
-        <v>80084</v>
+        <v>78980</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1585,21 +1585,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>666440</v>
+        <v>666624</v>
       </c>
       <c r="R11" t="n">
-        <v>7133437</v>
+        <v>7133203</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1653,7 +1653,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1672,10 +1671,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>73342806</v>
+        <v>73342716</v>
       </c>
       <c r="B12" t="n">
-        <v>78980</v>
+        <v>80084</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1683,21 +1682,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1707,10 +1706,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>666624</v>
+        <v>666440</v>
       </c>
       <c r="R12" t="n">
-        <v>7133203</v>
+        <v>7133437</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1751,6 +1750,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1866,10 +1866,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>73342851</v>
+        <v>73342854</v>
       </c>
       <c r="B14" t="n">
-        <v>91263</v>
+        <v>78980</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1877,21 +1877,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1901,10 +1901,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>667134</v>
+        <v>667326</v>
       </c>
       <c r="R14" t="n">
-        <v>7133680</v>
+        <v>7133356</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2060,10 +2060,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>73342854</v>
+        <v>73342851</v>
       </c>
       <c r="B16" t="n">
-        <v>78980</v>
+        <v>91263</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2071,21 +2071,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2095,10 +2095,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>667326</v>
+        <v>667134</v>
       </c>
       <c r="R16" t="n">
-        <v>7133356</v>
+        <v>7133680</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2157,32 +2157,32 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>73342720</v>
+        <v>73342805</v>
       </c>
       <c r="B17" t="n">
-        <v>88654</v>
+        <v>80112</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>510</v>
+        <v>6462</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2192,10 +2192,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>666370</v>
+        <v>666749</v>
       </c>
       <c r="R17" t="n">
-        <v>7133399</v>
+        <v>7133210</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2351,32 +2351,32 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>73342805</v>
+        <v>73342786</v>
       </c>
       <c r="B19" t="n">
-        <v>80112</v>
+        <v>78980</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>666749</v>
+        <v>667084</v>
       </c>
       <c r="R19" t="n">
-        <v>7133210</v>
+        <v>7133272</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2448,10 +2448,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>73342786</v>
+        <v>73342720</v>
       </c>
       <c r="B20" t="n">
-        <v>78980</v>
+        <v>88654</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2459,21 +2459,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>667084</v>
+        <v>666370</v>
       </c>
       <c r="R20" t="n">
-        <v>7133272</v>
+        <v>7133399</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3339,32 +3339,32 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>73342724</v>
+        <v>73342800</v>
       </c>
       <c r="B29" t="n">
-        <v>79987</v>
+        <v>91446</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6456</v>
+        <v>48</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Romell) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3374,10 +3374,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>666297</v>
+        <v>666840</v>
       </c>
       <c r="R29" t="n">
-        <v>7133333</v>
+        <v>7133206</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3436,32 +3436,32 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>73342846</v>
+        <v>73342724</v>
       </c>
       <c r="B30" t="n">
-        <v>91446</v>
+        <v>79987</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>48</v>
+        <v>6456</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Romell) Bondartsev &amp; Singer</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3471,10 +3471,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>666410</v>
+        <v>666297</v>
       </c>
       <c r="R30" t="n">
-        <v>7133567</v>
+        <v>7133333</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>73342800</v>
+        <v>73342846</v>
       </c>
       <c r="B31" t="n">
         <v>91446</v>
@@ -3568,10 +3568,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>666840</v>
+        <v>666410</v>
       </c>
       <c r="R31" t="n">
-        <v>7133206</v>
+        <v>7133567</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3824,32 +3824,32 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>73342711</v>
+        <v>73342857</v>
       </c>
       <c r="B34" t="n">
-        <v>80083</v>
+        <v>91446</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>48</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3859,10 +3859,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>666587</v>
+        <v>667284</v>
       </c>
       <c r="R34" t="n">
-        <v>7133222</v>
+        <v>7133334</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3921,32 +3921,32 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>73342857</v>
+        <v>73342798</v>
       </c>
       <c r="B35" t="n">
-        <v>91446</v>
+        <v>91245</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>48</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Romell) Bondartsev &amp; Singer</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -3956,10 +3956,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>667284</v>
+        <v>666908</v>
       </c>
       <c r="R35" t="n">
-        <v>7133334</v>
+        <v>7133259</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4018,10 +4018,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>73342807</v>
+        <v>73342711</v>
       </c>
       <c r="B36" t="n">
-        <v>91541</v>
+        <v>80083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4029,21 +4029,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>666624</v>
+        <v>666587</v>
       </c>
       <c r="R36" t="n">
-        <v>7133203</v>
+        <v>7133222</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4115,10 +4115,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>73342798</v>
+        <v>73342807</v>
       </c>
       <c r="B37" t="n">
-        <v>91245</v>
+        <v>91541</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4126,21 +4126,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4150,10 +4150,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>666908</v>
+        <v>666624</v>
       </c>
       <c r="R37" t="n">
-        <v>7133259</v>
+        <v>7133203</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4309,10 +4309,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>73342795</v>
+        <v>73342730</v>
       </c>
       <c r="B39" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4320,21 +4320,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4344,10 +4344,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>666969</v>
+        <v>666085</v>
       </c>
       <c r="R39" t="n">
-        <v>7133236</v>
+        <v>7133256</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4406,32 +4406,32 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>73342719</v>
+        <v>73342795</v>
       </c>
       <c r="B40" t="n">
-        <v>91699</v>
+        <v>91245</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4441,10 +4441,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>666370</v>
+        <v>666969</v>
       </c>
       <c r="R40" t="n">
-        <v>7133399</v>
+        <v>7133236</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4503,32 +4503,32 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>73342803</v>
+        <v>73342719</v>
       </c>
       <c r="B41" t="n">
-        <v>78980</v>
+        <v>91699</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4538,10 +4538,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>666799</v>
+        <v>666370</v>
       </c>
       <c r="R41" t="n">
-        <v>7133209</v>
+        <v>7133399</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4600,10 +4600,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>73342730</v>
+        <v>73342803</v>
       </c>
       <c r="B42" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4611,21 +4611,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4635,10 +4635,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>666085</v>
+        <v>666799</v>
       </c>
       <c r="R42" t="n">
-        <v>7133256</v>
+        <v>7133209</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4697,10 +4697,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>73342790</v>
+        <v>73342792</v>
       </c>
       <c r="B43" t="n">
-        <v>80084</v>
+        <v>80083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4708,21 +4708,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -4732,10 +4732,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>666969</v>
+        <v>666984</v>
       </c>
       <c r="R43" t="n">
-        <v>7133305</v>
+        <v>7133234</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>73342792</v>
+        <v>73342715</v>
       </c>
       <c r="B44" t="n">
         <v>80083</v>
@@ -4829,10 +4829,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>666984</v>
+        <v>666440</v>
       </c>
       <c r="R44" t="n">
-        <v>7133234</v>
+        <v>7133437</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -4891,10 +4891,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>73342715</v>
+        <v>73342790</v>
       </c>
       <c r="B45" t="n">
-        <v>80083</v>
+        <v>80084</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4902,21 +4902,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -4926,10 +4926,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>666440</v>
+        <v>666969</v>
       </c>
       <c r="R45" t="n">
-        <v>7133437</v>
+        <v>7133305</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5288,10 +5288,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>73342791</v>
+        <v>73342729</v>
       </c>
       <c r="B49" t="n">
-        <v>78980</v>
+        <v>80084</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5299,21 +5299,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5323,10 +5323,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>666984</v>
+        <v>666085</v>
       </c>
       <c r="R49" t="n">
-        <v>7133234</v>
+        <v>7133256</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5385,10 +5385,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>73342729</v>
+        <v>73342791</v>
       </c>
       <c r="B50" t="n">
-        <v>80084</v>
+        <v>78980</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5396,21 +5396,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5420,10 +5420,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>666085</v>
+        <v>666984</v>
       </c>
       <c r="R50" t="n">
-        <v>7133256</v>
+        <v>7133234</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5482,32 +5482,32 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>73342849</v>
+        <v>73342788</v>
       </c>
       <c r="B51" t="n">
-        <v>91942</v>
+        <v>80084</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3298</v>
+        <v>2081</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5517,10 +5517,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>666495</v>
+        <v>667084</v>
       </c>
       <c r="R51" t="n">
-        <v>7133719</v>
+        <v>7133272</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5579,32 +5579,32 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>73342852</v>
+        <v>73342849</v>
       </c>
       <c r="B52" t="n">
-        <v>78980</v>
+        <v>91942</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>667295</v>
+        <v>666495</v>
       </c>
       <c r="R52" t="n">
-        <v>7133725</v>
+        <v>7133719</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5676,10 +5676,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>73342788</v>
+        <v>73342852</v>
       </c>
       <c r="B53" t="n">
-        <v>80084</v>
+        <v>78980</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5687,21 +5687,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -5711,10 +5711,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>667084</v>
+        <v>667295</v>
       </c>
       <c r="R53" t="n">
-        <v>7133272</v>
+        <v>7133725</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -5773,32 +5773,32 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>73342787</v>
+        <v>73342850</v>
       </c>
       <c r="B54" t="n">
-        <v>80083</v>
+        <v>96487</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6458</v>
+        <v>2869</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -5808,10 +5808,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>667084</v>
+        <v>666897</v>
       </c>
       <c r="R54" t="n">
-        <v>7133272</v>
+        <v>7133616</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -5967,32 +5967,32 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>73342850</v>
+        <v>73342843</v>
       </c>
       <c r="B56" t="n">
-        <v>96487</v>
+        <v>91263</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2869</v>
+        <v>5432</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6002,10 +6002,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>666897</v>
+        <v>665899</v>
       </c>
       <c r="R56" t="n">
-        <v>7133616</v>
+        <v>7133081</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6064,10 +6064,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>73342843</v>
+        <v>73342787</v>
       </c>
       <c r="B57" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6075,21 +6075,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6099,10 +6099,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>665899</v>
+        <v>667084</v>
       </c>
       <c r="R57" t="n">
-        <v>7133081</v>
+        <v>7133272</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6161,32 +6161,32 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>73342789</v>
+        <v>73342714</v>
       </c>
       <c r="B58" t="n">
-        <v>80083</v>
+        <v>91614</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6458</v>
+        <v>1506</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6196,10 +6196,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>666969</v>
+        <v>666517</v>
       </c>
       <c r="R58" t="n">
-        <v>7133305</v>
+        <v>7133384</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6258,32 +6258,32 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>73342714</v>
+        <v>73342856</v>
       </c>
       <c r="B59" t="n">
-        <v>91614</v>
+        <v>91245</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1506</v>
+        <v>1202</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6293,10 +6293,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>666517</v>
+        <v>667284</v>
       </c>
       <c r="R59" t="n">
-        <v>7133384</v>
+        <v>7133334</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6355,10 +6355,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>73342856</v>
+        <v>73342789</v>
       </c>
       <c r="B60" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6366,21 +6366,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6390,10 +6390,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>667284</v>
+        <v>666969</v>
       </c>
       <c r="R60" t="n">
-        <v>7133334</v>
+        <v>7133305</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6452,10 +6452,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>73342692</v>
+        <v>73342799</v>
       </c>
       <c r="B61" t="n">
-        <v>91263</v>
+        <v>91541</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6463,21 +6463,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -6487,10 +6487,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>666085</v>
+        <v>666908</v>
       </c>
       <c r="R61" t="n">
-        <v>7133256</v>
+        <v>7133259</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -6549,10 +6549,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>73342799</v>
+        <v>73342692</v>
       </c>
       <c r="B62" t="n">
-        <v>91541</v>
+        <v>91263</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6560,21 +6560,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -6584,10 +6584,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>666908</v>
+        <v>666085</v>
       </c>
       <c r="R62" t="n">
-        <v>7133259</v>
+        <v>7133256</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
